--- a/A2_results_step1.5_oneprice_1.4.xlsx
+++ b/A2_results_step1.5_oneprice_1.4.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37fc5fa60b93f913/Desktop/Renewables in Electricity Markets/Shared Code Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{BE48D945-C26C-4447-BF77-0073DE862EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="profit_dis" sheetId="1" r:id="rId1"/>
-    <sheet name="da_profit_df" r:id="rId5" sheetId="2"/>
-    <sheet name="outofsample_profit_hourly_df" r:id="rId6" sheetId="3"/>
+    <sheet name="da_profit_df" sheetId="2" r:id="rId2"/>
+    <sheet name="outofsample_profit_hourly_df" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>x1</t>
   </si>
@@ -449,2016 +449,2016 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A61223F-C1E1-4166-8D72-D2BD37206870}">
   <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>442586.00062500004</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>445597.3914375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>445597.39143750002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>448537.86956250004</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>440291.71687500004</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>439923.893625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>439923.89362500003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>442115.31206250004</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>442039.01268750004</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>441433.93425000005</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>443805.2295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>443805.22950000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>444281.35050000006</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>443440.68281250005</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>440849.48606250004</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>443789.80893750006</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>437572.04081250005</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>436477.14731250005</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>438291.22537500004</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>444918.84525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>444918.84525000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>447233.6435625</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>447233.64356250002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>444338.24925000005</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>443617.74393750005</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>447866.00025000004</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>446905.3509375001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>446905.35093750007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>450802.55831250007</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>447599.33550000004</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>446509.90406250005</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>450225.70987500006</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>449148.0455625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>449148.04556250002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>452327.7174375</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>452327.71743750002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>451924.58418750006</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>454913.47293750005</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>447141.9106875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>447141.91068750003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>449435.00681250007</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>454232.46431250003</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>452933.02912500006</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>458307.83700000006</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>457132.31362500007</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>461362.67437500006</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>459400.64381250006</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>466747.44450000004</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>450528.90768750006</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>450155.31825000007</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>453706.44318750006</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>460597.95975000004</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>458914.51275000005</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>463241.61243750004</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>474904.34512500005</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>472432.6333125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>472432.63331250002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>456249.45000000007</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>460460.12043750007</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>459453.26343750005</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>462022.29675000004</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>464146.7341875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>464146.73418750003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>462028.5331875</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>462028.53318750003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>457844.29387500003</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>462946.27050000004</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>442931.83837500005</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>465750.637125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>465750.63712500001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>463166.7913125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>463166.79131250002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>461280.07031250006</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>459212.17143750004</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>463893.3975</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>463893.39750000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>476331.06037500006</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>480690.20625000005</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>473659.12668750004</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>470890.80487500003</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>477608.28862500004</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>479003.48400000005</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>476009.22787500004</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>481256.0310000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>481256.03100000008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>478151.55393750005</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>469051.60856250004</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>467239.41018750006</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>472650.7486875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>472650.74868750002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>475438.87950000004</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>479605.2508125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>479605.25081250002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>493169.71612500004</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>489238.5594375</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>489238.55943750002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>499191.3736875</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>499191.37368750002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>499124.15981250006</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>516660.2124375001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>516660.21243750007</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>478261.83768750005</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>476172.1726875</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>476172.17268750002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>540655.6854375</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>540655.68543750001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>440883.53793750005</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>442721.42193750007</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>444084.7764375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>444084.77643750003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>443273.38818750007</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>439295.14968750003</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>438741.7749375001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>438741.77493750007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>441193.977375</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>441193.97737500002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>440884.40737500007</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>440032.39312500006</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>443380.70906250004</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>442276.76418750006</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>445390.11000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>442144.54162500007</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>440824.503</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>440824.50300000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>444078.99281250004</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>438479.41687500005</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>444287.9596875</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>444287.95968750003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>442783.81106250006</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>442489.7743125</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>442489.77431250003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>444305.23443750007</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>446147.36062500003</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>444766.90950000007</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>449192.01093750005</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>444813.35643750004</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>447088.50356250006</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>445667.12306250003</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>450293.63193750003</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>449686.08825000003</v>
       </c>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>447905.03475000005</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>444695.593875</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>444695.59387500002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>443777.22543750005</v>
       </c>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>446113.79493750003</v>
       </c>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>445087.569375</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>445087.56937500002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>448795.2003750001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>448795.20037500007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>451676.908875</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>451676.90887500002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>449733.51956250006</v>
       </c>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>452224.91906250006</v>
       </c>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>459013.64156250004</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>456297.43106250005</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>464495.79900000006</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>448039.5054375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>448039.50543750002</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>446936.75175000005</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>466330.5264375</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>466330.52643750003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>462695.20068750007</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>473159.85393750004</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>431729.15062500007</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>433557.25200000004</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>432485.08125000005</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>435300.22762500006</v>
       </c>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>431944.53750000003</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>432115.1499375001</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>432115.14993750007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>433987.32300000003</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>433800.19125000003</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>433358.94637500006</v>
       </c>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>435592.89018750004</v>
       </c>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>434569.12500000006</v>
       </c>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>432823.402125</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>432823.40212500002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>434098.824375</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>434098.82437500003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>433306.38993750006</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>432544.45781250007</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>435294.82143750007</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>432922.01587500004</v>
       </c>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>432568.97756250005</v>
       </c>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>433052.03081250004</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>433407.71081250004</v>
       </c>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>432374.55150000006</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>435229.52831250004</v>
       </c>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>433971.58837500005</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>433248.4340625</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>433248.43406250002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>436667.92650000006</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>435745.88175000006</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>434252.34843750007</v>
       </c>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>433632.38850000006</v>
       </c>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>432071.60006250005</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>436470.47775</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>436470.47775000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>433606.84687500005</v>
       </c>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>432491.34543750004</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>437326.64175000007</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>433976.33231250005</v>
       </c>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>432594.66750000004</v>
       </c>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>438657.2338125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>438657.23381250002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>434280.72468750004</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>433705.21556250006</v>
       </c>
     </row>
-    <row r="168" spans="1:1">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>434551.62281250005</v>
       </c>
     </row>
-    <row r="169" spans="1:1">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>432911.45550000004</v>
       </c>
     </row>
-    <row r="170" spans="1:1">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>440546.25806250004</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>426160.82175000006</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>427178.79656250007</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>423564.44550000003</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>425038.5352500001</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>425038.53525000007</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>425730.04050000006</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>427224.82706250006</v>
       </c>
     </row>
-    <row r="177" spans="1:1">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>426063.0785625001</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>426063.07856250007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>426493.63575</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>426493.63575000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>427541.67225000006</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>426522.8356875</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>426522.83568750002</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>426809.69062500005</v>
       </c>
     </row>
-    <row r="182" spans="1:1">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>428052.23287500005</v>
       </c>
     </row>
-    <row r="183" spans="1:1">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>425352.95775000006</v>
       </c>
     </row>
-    <row r="184" spans="1:1">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>426624.4685625</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>426624.46856250003</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>429163.03612500004</v>
       </c>
     </row>
-    <row r="186" spans="1:1">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>429270.95943750005</v>
       </c>
     </row>
-    <row r="187" spans="1:1">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>430024.83337500005</v>
       </c>
     </row>
-    <row r="188" spans="1:1">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>424844.22618750005</v>
       </c>
     </row>
-    <row r="189" spans="1:1">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>426495.78356250003</v>
       </c>
     </row>
-    <row r="190" spans="1:1">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>428067.46481250005</v>
       </c>
     </row>
-    <row r="191" spans="1:1">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>422643.49987500004</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>424860.492</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>424860.49200000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>423906.60075000004</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>424091.65931250004</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>421542.60675000004</v>
       </c>
     </row>
-    <row r="196" spans="1:1">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>424077.852375</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>424077.85237500002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>423299.64637500007</v>
       </c>
     </row>
-    <row r="198" spans="1:1">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>423664.01325</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>423664.01325000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>426892.56281250005</v>
       </c>
     </row>
-    <row r="200" spans="1:1">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>428630.66043750005</v>
       </c>
     </row>
-    <row r="201" spans="1:1">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>425793.61406250007</v>
       </c>
     </row>
-    <row r="202" spans="1:1">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>427482.99075000006</v>
       </c>
     </row>
-    <row r="203" spans="1:1">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>418772.34393750003</v>
       </c>
     </row>
-    <row r="204" spans="1:1">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>419389.92712500005</v>
       </c>
     </row>
-    <row r="205" spans="1:1">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>418485.6645000001</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>418485.66450000007</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>418830.17550000007</v>
       </c>
     </row>
-    <row r="207" spans="1:1">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>414992.08650000003</v>
       </c>
     </row>
-    <row r="208" spans="1:1">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>415334.9795625</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>415334.97956250003</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>424662.86156250007</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>414439.6194375</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>414439.61943750002</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>424517.03193750005</v>
       </c>
     </row>
-    <row r="212" spans="1:1">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>423440.42643750005</v>
       </c>
     </row>
-    <row r="213" spans="1:1">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>424047.42000000004</v>
       </c>
     </row>
-    <row r="214" spans="1:1">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>424834.53656250006</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>423695.22787500004</v>
       </c>
     </row>
-    <row r="216" spans="1:1">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>425062.12668750004</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>424187.63568750006</v>
       </c>
     </row>
-    <row r="218" spans="1:1">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>422726.53518750006</v>
       </c>
     </row>
-    <row r="219" spans="1:1">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>423178.58868750004</v>
       </c>
     </row>
-    <row r="220" spans="1:1">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>428308.09593750007</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>429148.25850000005</v>
       </c>
     </row>
-    <row r="222" spans="1:1">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>421945.88587500004</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>422135.47406250006</v>
       </c>
     </row>
-    <row r="224" spans="1:1">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>423863.53650000005</v>
       </c>
     </row>
-    <row r="225" spans="1:1">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>424335.50306250004</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>418714.08168750006</v>
       </c>
     </row>
-    <row r="227" spans="1:1">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>419172.18393750006</v>
       </c>
     </row>
-    <row r="228" spans="1:1">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>420335.09437500004</v>
       </c>
     </row>
-    <row r="229" spans="1:1">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>420623.2113750001</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>420623.21137500007</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>417385.06818750006</v>
       </c>
     </row>
-    <row r="231" spans="1:1">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>418130.19375000003</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>419717.10506250005</v>
       </c>
     </row>
-    <row r="233" spans="1:1">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>419477.6030625001</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>419477.60306250007</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>421108.38918750006</v>
       </c>
     </row>
-    <row r="235" spans="1:1">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>424054.05956250004</v>
       </c>
     </row>
-    <row r="236" spans="1:1">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>425086.489875</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>425086.48987500003</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>421972.28043750004</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>413362.408125</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>413362.40812500002</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>416194.80881250004</v>
       </c>
     </row>
-    <row r="240" spans="1:1">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>412648.23937500006</v>
       </c>
     </row>
-    <row r="241" spans="1:1">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>413146.12068750005</v>
       </c>
     </row>
-    <row r="242" spans="1:1">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>407699.1624375</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>407699.16243750002</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>408246.40687500004</v>
       </c>
     </row>
-    <row r="244" spans="1:1">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>420378.2505</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>420378.25050000002</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>422328.98325000005</v>
       </c>
     </row>
-    <row r="246" spans="1:1">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>401425.1265</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>401425.12650000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>404873.60550000006</v>
       </c>
     </row>
-    <row r="248" spans="1:1">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>428617.89206250006</v>
       </c>
     </row>
-    <row r="249" spans="1:1">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>429544.29468750005</v>
       </c>
     </row>
-    <row r="250" spans="1:1">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>430594.56731250003</v>
       </c>
     </row>
-    <row r="251" spans="1:1">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>427196.34393750003</v>
       </c>
     </row>
-    <row r="252" spans="1:1">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>428408.326875</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>428408.32687500003</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>429039.76443750004</v>
       </c>
     </row>
-    <row r="254" spans="1:1">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>430087.41975000006</v>
       </c>
     </row>
-    <row r="255" spans="1:1">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>428673.94950000005</v>
       </c>
     </row>
-    <row r="256" spans="1:1">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>429431.8076250001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>429431.80762500007</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>430517.45568750007</v>
       </c>
     </row>
-    <row r="258" spans="1:1">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>429583.696125</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>429583.69612500002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>430203.23081250006</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>431508.4539375</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>431508.45393750002</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>429019.29993750004</v>
       </c>
     </row>
-    <row r="262" spans="1:1">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>427579.5495</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>427579.54950000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>429499.60425000003</v>
       </c>
     </row>
-    <row r="264" spans="1:1">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>430292.59518750006</v>
       </c>
     </row>
-    <row r="265" spans="1:1">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>431503.4514375001</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>431503.45143750007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>427245.47437500005</v>
       </c>
     </row>
-    <row r="267" spans="1:1">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>428051.28506250004</v>
       </c>
     </row>
-    <row r="268" spans="1:1">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>428700.1066875</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>428700.10668750003</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>430592.3368125</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>430592.33681250003</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>426373.55887500005</v>
       </c>
     </row>
-    <row r="271" spans="1:1">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>427556.62500000006</v>
       </c>
     </row>
-    <row r="272" spans="1:1">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>429554.1780000001</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>429554.17800000007</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>428496.9405</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>428496.94050000003</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>429461.922</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>429461.92200000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>431499.28912500007</v>
       </c>
     </row>
-    <row r="276" spans="1:1">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>431453.2760625</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+        <v>431453.27606250002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>432346.00068750005</v>
       </c>
     </row>
-    <row r="278" spans="1:1">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>429102.01631250005</v>
       </c>
     </row>
-    <row r="279" spans="1:1">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>425446.503</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>425446.50300000003</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>429527.92443750007</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>425073.23850000004</v>
       </c>
     </row>
-    <row r="282" spans="1:1">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>428908.31568750006</v>
       </c>
     </row>
-    <row r="283" spans="1:1">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>429720.15525000007</v>
       </c>
     </row>
-    <row r="284" spans="1:1">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>432613.34512500005</v>
       </c>
     </row>
-    <row r="285" spans="1:1">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>421754.06006250007</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>441977.08368750004</v>
       </c>
     </row>
-    <row r="287" spans="1:1">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>444480.56587500003</v>
       </c>
     </row>
-    <row r="288" spans="1:1">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>447301.62825000007</v>
       </c>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>440806.99781250005</v>
       </c>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>440608.82568750007</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>441449.69268750004</v>
       </c>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>444467.42006250005</v>
       </c>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>443945.32068750006</v>
       </c>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>446973.19106250006</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>441146.08518750005</v>
       </c>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>436777.2050625</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>436777.20506250003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>443907.10781250003</v>
       </c>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>446635.2841875</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>446635.28418750002</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>442972.50600000005</v>
       </c>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>442570.96368750004</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>447498.4685625</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>447498.46856250003</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>447674.01806250005</v>
       </c>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>446880.68212500005</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>450953.24400000006</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>448247.2753125</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
+        <v>448247.27531250002</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>452732.96625000006</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>447601.88250000007</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>450284.38518750004</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>449729.94993750006</v>
       </c>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>453616.70062500006</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>454217.53481250006</v>
       </c>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>453343.52587500005</v>
       </c>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>459264.54187500005</v>
       </c>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>457136.59500000003</v>
       </c>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>455944.15200000006</v>
       </c>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316">
-        <v>463958.5764375001</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>463958.57643750007</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>462464.06625000003</v>
       </c>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>470755.31925000006</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>454234.69818750006</v>
       </c>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>469941.26812500006</v>
       </c>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>480384.43462500005</v>
       </c>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>443859.25837500003</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>444132.50212500006</v>
       </c>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324">
-        <v>449464.7461875</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
+        <v>449464.74618750002</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>449763.48000000004</v>
       </c>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326">
-        <v>453252.3744375</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>453252.37443750002</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>443830.12631250004</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328">
-        <v>442764.122625</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>442764.12262500002</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>445171.78687500005</v>
       </c>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330">
-        <v>447701.5875</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>447701.58750000002</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>440329.30012500007</v>
       </c>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332">
-        <v>440080.1105625</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
+        <v>440080.11056250002</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>442569.89137500006</v>
       </c>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>434757.87056250003</v>
       </c>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>443510.47612500004</v>
       </c>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>443315.56743750005</v>
       </c>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337">
-        <v>446247.9926250001</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
+        <v>446247.99262500007</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>443894.18887500005</v>
       </c>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339">
-        <v>443962.6723125001</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+        <v>443962.67231250007</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340">
-        <v>446327.1954375</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
+        <v>446327.19543750002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>449173.66218750004</v>
       </c>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>452876.61150000006</v>
       </c>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>448735.06781250006</v>
       </c>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344">
-        <v>452065.55625</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
+        <v>452065.55625000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345">
-        <v>450431.715</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
+        <v>450431.71500000003</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>450609.60937500006</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347">
-        <v>453004.722375</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>453004.72237500001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>456911.33831250004</v>
       </c>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>450352.78218750004</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>450645.26250000007</v>
       </c>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>453586.13962500007</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352">
-        <v>452994.5640000001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>452994.56400000007</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>456461.62556250003</v>
       </c>
     </row>
-    <row r="354" spans="1:1">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354">
-        <v>456210.471375</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
+        <v>456210.47137500002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>456298.96950000006</v>
       </c>
     </row>
-    <row r="356" spans="1:1">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>466853.97506250005</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>475821.97893750004</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>475161.31706250005</v>
       </c>
     </row>
-    <row r="359" spans="1:1">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359">
-        <v>484293.993</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>484293.99300000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360">
-        <v>450559.2575625</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
+        <v>450559.25756250002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361">
-        <v>452854.9245</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
+        <v>452854.92450000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>458934.44700000004</v>
       </c>
     </row>
-    <row r="363" spans="1:1">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>462676.82212500006</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>448063.28081250004</v>
       </c>
     </row>
-    <row r="365" spans="1:1">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>450343.32000000007</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>448610.4493125</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>448610.44931250002</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>451984.381875</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>451984.38187500002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>453211.09968750004</v>
       </c>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>455752.29675000004</v>
       </c>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>450138.57881250005</v>
       </c>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>448443.06675000006</v>
       </c>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>452402.146125</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
+        <v>452402.14612500003</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>441460.9273125</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
+        <v>441460.92731250002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>453908.88918750006</v>
       </c>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>452080.9539375</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
+        <v>452080.95393750002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>456712.96275000006</v>
       </c>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>451408.77375000005</v>
       </c>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>453656.92087500007</v>
       </c>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>458519.87325000006</v>
       </c>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>459287.69250000006</v>
       </c>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>462310.83131250006</v>
       </c>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>466239.310125</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
+        <v>466239.31012500002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>464862.04612500005</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>462706.28962500003</v>
       </c>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>468704.67300000007</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>457063.21406250005</v>
       </c>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>460112.7916875</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
+        <v>460112.79168750002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>460702.73831250006</v>
       </c>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>459361.09556250006</v>
       </c>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>464211.21693750005</v>
       </c>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>471429.5214375</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>471429.52143750002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>476559.4245</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
+        <v>476559.42450000002</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>475877.78400000004</v>
       </c>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>481231.79962500004</v>
       </c>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>486835.0434375</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
+        <v>486835.04343750002</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>483338.10000000003</v>
       </c>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>493916.84625000006</v>
       </c>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>462477.29887500004</v>
       </c>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>461127.76106250007</v>
       </c>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>466293.82800000004</v>
       </c>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>510208.3190625001</v>
+        <v>510208.31906250009</v>
       </c>
     </row>
   </sheetData>
@@ -2467,14 +2467,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5EA957-4454-4ADB-86F5-1E7866A69842}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,78 +2548,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>70706.11875000004</v>
+        <v>70706.118750000038</v>
       </c>
       <c r="B2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>66128.15625000001</v>
+        <v>66128.156250000015</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>83302.26000000001</v>
+        <v>83302.260000000009</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>74999.745</v>
+        <v>74999.744999999995</v>
       </c>
       <c r="M2">
         <v>70338.61500000002</v>
       </c>
       <c r="N2">
-        <v>68251.87124999997</v>
+        <v>68251.871249999967</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2628,134 +2628,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450FBD52-EDB4-4E02-BAB2-E72E0D8069EC}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>28283.57755125004</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>28618.124624999993</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>26859.236175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>26859.236174999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>28533.883357500003</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>28261.116877499997</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>30169.51457999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>30169.514579999988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>34311.14199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>34311.141989999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>42121.11224249999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>42121.112242499992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>42042.79106999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>42042.791069999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>27453.528832500007</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>22270.863791250005</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>16164.648359999977</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21030.45609750002</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>21150.25049249996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>21150.250492499959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16429.029738750003</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>17958.74531625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17958.745316249999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>19809.1232775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19809.123277499999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>28011.762134999997</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>31844.258100000006</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>35429.33859749999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>35429.338597499991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>34560.705611249985</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>40269.10572000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>40269.105720000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>34572.371456249995</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>32297.649153749997</v>
       </c>

--- a/A2_results_step1.5_oneprice_1.4.xlsx
+++ b/A2_results_step1.5_oneprice_1.4.xlsx
@@ -463,82 +463,82 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>442586.00062500004</v>
+        <v>442586.000625</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>445597.3914375</v>
+        <v>445597.39143749996</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>448537.86956250004</v>
+        <v>448537.8695625</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>440291.71687500004</v>
+        <v>440291.716875</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>439923.893625</v>
+        <v>439923.89362499997</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>442115.31206250004</v>
+        <v>442115.3120625</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>442039.01268750004</v>
+        <v>442039.0126875</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>441433.93425000005</v>
+        <v>441433.93425</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>443805.2295</v>
+        <v>443805.22949999996</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>444281.35050000006</v>
+        <v>444281.3505</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>443440.68281250005</v>
+        <v>443440.6828125</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>440849.48606250004</v>
+        <v>440849.4860625</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>443789.80893750006</v>
+        <v>443789.8089375</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>437572.04081250005</v>
+        <v>437572.0408125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>436477.14731250005</v>
+        <v>436477.1473125</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>438291.22537500004</v>
+        <v>438291.225375</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -548,197 +548,197 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>447233.6435625</v>
+        <v>447233.64356249996</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>444338.24925000005</v>
+        <v>444338.24925</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>443617.74393750005</v>
+        <v>443617.7439375</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>447866.00025000004</v>
+        <v>447866.00025</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>446905.3509375001</v>
+        <v>446905.3509375</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24">
-        <v>450802.55831250007</v>
+        <v>450802.5583125</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>447599.33550000004</v>
+        <v>447599.3355</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26">
-        <v>446509.90406250005</v>
+        <v>446509.9040625</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27">
-        <v>450225.70987500006</v>
+        <v>450225.709875</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28">
-        <v>449148.0455625</v>
+        <v>449148.04556249996</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29">
-        <v>452327.7174375</v>
+        <v>452327.71743749996</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30">
-        <v>451924.58418750006</v>
+        <v>451924.5841875</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31">
-        <v>454913.47293750005</v>
+        <v>454913.4729375</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>447141.9106875</v>
+        <v>447141.91068749997</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33">
-        <v>449435.00681250007</v>
+        <v>449435.0068125</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34">
-        <v>454232.46431250003</v>
+        <v>454232.4643125</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35">
-        <v>452933.02912500006</v>
+        <v>452933.029125</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36">
-        <v>458307.83700000006</v>
+        <v>458307.837</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37">
-        <v>457132.31362500007</v>
+        <v>457132.313625</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38">
-        <v>461362.67437500006</v>
+        <v>461362.674375</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39">
-        <v>459400.64381250006</v>
+        <v>459400.6438125</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40">
-        <v>466747.44450000004</v>
+        <v>466747.4445</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41">
-        <v>450528.90768750006</v>
+        <v>450528.9076875</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42">
-        <v>450155.31825000007</v>
+        <v>450155.31825</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43">
-        <v>453706.44318750006</v>
+        <v>453706.4431875</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44">
-        <v>460597.95975000004</v>
+        <v>460597.95975</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45">
-        <v>458914.51275000005</v>
+        <v>458914.51275</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>463241.61243750004</v>
+        <v>463241.6124375</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47">
-        <v>474904.34512500005</v>
+        <v>474904.345125</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48">
-        <v>472432.6333125</v>
+        <v>472432.63331249997</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49">
-        <v>456249.45000000007</v>
+        <v>456249.44999999995</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50">
-        <v>460460.12043750007</v>
+        <v>460460.1204375</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51">
-        <v>459453.26343750005</v>
+        <v>459453.2634375</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52">
-        <v>462022.29675000004</v>
+        <v>462022.29675</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53">
-        <v>464146.7341875</v>
+        <v>464146.73418749997</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54">
-        <v>462028.5331875</v>
+        <v>462028.53318749997</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55">
-        <v>457844.29387500003</v>
+        <v>457844.293875</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56">
-        <v>462946.27050000004</v>
+        <v>462946.2705</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57">
-        <v>442931.83837500005</v>
+        <v>442931.838375</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -748,77 +748,77 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59">
-        <v>463166.7913125</v>
+        <v>463166.79131249996</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60">
-        <v>461280.07031250006</v>
+        <v>461280.0703125</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61">
-        <v>459212.17143750004</v>
+        <v>459212.1714375</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62">
-        <v>463893.3975</v>
+        <v>463893.39749999996</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63">
-        <v>476331.06037500006</v>
+        <v>476331.060375</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>480690.20625000005</v>
+        <v>480690.20625</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65">
-        <v>473659.12668750004</v>
+        <v>473659.1266875</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>470890.80487500003</v>
+        <v>470890.804875</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67">
-        <v>477608.28862500004</v>
+        <v>477608.288625</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68">
-        <v>479003.48400000005</v>
+        <v>479003.484</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69">
-        <v>476009.22787500004</v>
+        <v>476009.227875</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>481256.0310000001</v>
+        <v>481256.03099999996</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71">
-        <v>478151.55393750005</v>
+        <v>478151.5539375</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72">
-        <v>469051.60856250004</v>
+        <v>469051.6085625</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73">
-        <v>467239.41018750006</v>
+        <v>467239.4101875</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -828,7 +828,7 @@
     </row>
     <row r="75" spans="1:1">
       <c r="A75">
-        <v>475438.87950000004</v>
+        <v>475438.8795</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -838,32 +838,32 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77">
-        <v>493169.71612500004</v>
+        <v>493169.716125</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78">
-        <v>489238.5594375</v>
+        <v>489238.55943749996</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79">
-        <v>499191.3736875</v>
+        <v>499191.37368749996</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80">
-        <v>499124.15981250006</v>
+        <v>499124.1598125</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81">
-        <v>516660.2124375001</v>
+        <v>516660.2124375</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82">
-        <v>478261.83768750005</v>
+        <v>478261.8376875</v>
       </c>
     </row>
     <row r="83" spans="1:1">
@@ -878,627 +878,627 @@
     </row>
     <row r="85" spans="1:1">
       <c r="A85">
-        <v>440883.53793750005</v>
+        <v>440883.5379375</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86">
-        <v>442721.42193750007</v>
+        <v>442721.4219375</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87">
-        <v>444084.7764375</v>
+        <v>444084.77643749997</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88">
-        <v>443273.38818750007</v>
+        <v>443273.3881875</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89">
-        <v>439295.14968750003</v>
+        <v>439295.1496875</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90">
-        <v>438741.7749375001</v>
+        <v>438741.7749375</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91">
-        <v>441193.977375</v>
+        <v>441193.97737499996</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92">
-        <v>440884.40737500007</v>
+        <v>440884.407375</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93">
-        <v>440032.39312500006</v>
+        <v>440032.393125</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94">
-        <v>443380.70906250004</v>
+        <v>443380.7090625</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95">
-        <v>442276.76418750006</v>
+        <v>442276.7641875</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96">
-        <v>445390.11000000004</v>
+        <v>445390.11</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97">
-        <v>442144.54162500007</v>
+        <v>442144.541625</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
-        <v>440824.503</v>
+        <v>440824.50299999997</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99">
-        <v>444078.99281250004</v>
+        <v>444078.9928125</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100">
-        <v>438479.41687500005</v>
+        <v>438479.416875</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101">
-        <v>444287.9596875</v>
+        <v>444287.95968749997</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102">
-        <v>442783.81106250006</v>
+        <v>442783.8110625</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103">
-        <v>442489.7743125</v>
+        <v>442489.77431249997</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104">
-        <v>444305.23443750007</v>
+        <v>444305.2344375</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105">
-        <v>446147.36062500003</v>
+        <v>446147.360625</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106">
-        <v>444766.90950000007</v>
+        <v>444766.9095</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107">
-        <v>449192.01093750005</v>
+        <v>449192.0109375</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108">
-        <v>444813.35643750004</v>
+        <v>444813.3564375</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109">
-        <v>447088.50356250006</v>
+        <v>447088.5035625</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110">
-        <v>445667.12306250003</v>
+        <v>445667.1230625</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111">
-        <v>450293.63193750003</v>
+        <v>450293.6319375</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112">
-        <v>449686.08825000003</v>
+        <v>449686.08825</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113">
-        <v>447905.03475000005</v>
+        <v>447905.03475</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114">
-        <v>444695.593875</v>
+        <v>444695.59387499996</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115">
-        <v>443777.22543750005</v>
+        <v>443777.2254375</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116">
-        <v>446113.79493750003</v>
+        <v>446113.7949375</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117">
-        <v>445087.569375</v>
+        <v>445087.56937499996</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118">
-        <v>448795.2003750001</v>
+        <v>448795.200375</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119">
-        <v>451676.908875</v>
+        <v>451676.90887499996</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120">
-        <v>449733.51956250006</v>
+        <v>449733.5195625</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121">
-        <v>452224.91906250006</v>
+        <v>452224.9190625</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122">
-        <v>459013.64156250004</v>
+        <v>459013.6415625</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123">
-        <v>456297.43106250005</v>
+        <v>456297.4310625</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124">
-        <v>464495.79900000006</v>
+        <v>464495.799</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125">
-        <v>448039.5054375</v>
+        <v>448039.50543749996</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126">
-        <v>446936.75175000005</v>
+        <v>446936.75175</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127">
-        <v>466330.5264375</v>
+        <v>466330.52643749997</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128">
-        <v>462695.20068750007</v>
+        <v>462695.2006875</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129">
-        <v>473159.85393750004</v>
+        <v>473159.8539375</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130">
-        <v>431729.15062500007</v>
+        <v>431729.150625</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131">
-        <v>433557.25200000004</v>
+        <v>433557.252</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132">
-        <v>432485.08125000005</v>
+        <v>432485.08125</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133">
-        <v>435300.22762500006</v>
+        <v>435300.227625</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134">
-        <v>431944.53750000003</v>
+        <v>431944.5375</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135">
-        <v>432115.1499375001</v>
+        <v>432115.1499375</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136">
-        <v>433987.32300000003</v>
+        <v>433987.323</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137">
-        <v>433800.19125000003</v>
+        <v>433800.19125</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138">
-        <v>433358.94637500006</v>
+        <v>433358.946375</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139">
-        <v>435592.89018750004</v>
+        <v>435592.8901875</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140">
-        <v>434569.12500000006</v>
+        <v>434569.125</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141">
-        <v>432823.402125</v>
+        <v>432823.40212499996</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142">
-        <v>434098.824375</v>
+        <v>434098.82437499997</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143">
-        <v>433306.38993750006</v>
+        <v>433306.3899375</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144">
-        <v>432544.45781250007</v>
+        <v>432544.4578125</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145">
-        <v>435294.82143750007</v>
+        <v>435294.8214375</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146">
-        <v>432922.01587500004</v>
+        <v>432922.015875</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147">
-        <v>432568.97756250005</v>
+        <v>432568.9775625</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148">
-        <v>433052.03081250004</v>
+        <v>433052.0308125</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149">
-        <v>433407.71081250004</v>
+        <v>433407.7108125</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150">
-        <v>432374.55150000006</v>
+        <v>432374.5515</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151">
-        <v>435229.52831250004</v>
+        <v>435229.5283125</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152">
-        <v>433971.58837500005</v>
+        <v>433971.588375</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153">
-        <v>433248.4340625</v>
+        <v>433248.43406249996</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154">
-        <v>436667.92650000006</v>
+        <v>436667.9265</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155">
-        <v>435745.88175000006</v>
+        <v>435745.88175</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156">
-        <v>434252.34843750007</v>
+        <v>434252.3484375</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157">
-        <v>433632.38850000006</v>
+        <v>433632.3885</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158">
-        <v>432071.60006250005</v>
+        <v>432071.6000625</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159">
-        <v>436470.47775</v>
+        <v>436470.47774999996</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160">
-        <v>433606.84687500005</v>
+        <v>433606.846875</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161">
-        <v>432491.34543750004</v>
+        <v>432491.3454375</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162">
-        <v>437326.64175000007</v>
+        <v>437326.64175</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163">
-        <v>433976.33231250005</v>
+        <v>433976.3323125</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164">
-        <v>432594.66750000004</v>
+        <v>432594.6675</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165">
-        <v>438657.2338125</v>
+        <v>438657.23381249997</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166">
-        <v>434280.72468750004</v>
+        <v>434280.7246875</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167">
-        <v>433705.21556250006</v>
+        <v>433705.2155625</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168">
-        <v>434551.62281250005</v>
+        <v>434551.6228125</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169">
-        <v>432911.45550000004</v>
+        <v>432911.4555</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170">
-        <v>440546.25806250004</v>
+        <v>440546.2580625</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171">
-        <v>426160.82175000006</v>
+        <v>426160.82175</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172">
-        <v>427178.79656250007</v>
+        <v>427178.7965625</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173">
-        <v>423564.44550000003</v>
+        <v>423564.4455</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174">
-        <v>425038.5352500001</v>
+        <v>425038.53524999996</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175">
-        <v>425730.04050000006</v>
+        <v>425730.0405</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176">
-        <v>427224.82706250006</v>
+        <v>427224.8270625</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177">
-        <v>426063.0785625001</v>
+        <v>426063.0785625</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178">
-        <v>426493.63575</v>
+        <v>426493.63574999996</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179">
-        <v>427541.67225000006</v>
+        <v>427541.67225</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180">
-        <v>426522.8356875</v>
+        <v>426522.83568749996</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181">
-        <v>426809.69062500005</v>
+        <v>426809.690625</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182">
-        <v>428052.23287500005</v>
+        <v>428052.232875</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183">
-        <v>425352.95775000006</v>
+        <v>425352.95775</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184">
-        <v>426624.4685625</v>
+        <v>426624.46856249997</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185">
-        <v>429163.03612500004</v>
+        <v>429163.036125</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186">
-        <v>429270.95943750005</v>
+        <v>429270.9594375</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187">
-        <v>430024.83337500005</v>
+        <v>430024.833375</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188">
-        <v>424844.22618750005</v>
+        <v>424844.2261875</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189">
-        <v>426495.78356250003</v>
+        <v>426495.7835625</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190">
-        <v>428067.46481250005</v>
+        <v>428067.4648125</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191">
-        <v>422643.49987500004</v>
+        <v>422643.499875</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192">
-        <v>424860.492</v>
+        <v>424860.49199999997</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193">
-        <v>423906.60075000004</v>
+        <v>423906.60075</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194">
-        <v>424091.65931250004</v>
+        <v>424091.6593125</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195">
-        <v>421542.60675000004</v>
+        <v>421542.60675</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196">
-        <v>424077.852375</v>
+        <v>424077.85237499996</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197">
-        <v>423299.64637500007</v>
+        <v>423299.646375</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198">
-        <v>423664.01325</v>
+        <v>423664.01324999996</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199">
-        <v>426892.56281250005</v>
+        <v>426892.5628125</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200">
-        <v>428630.66043750005</v>
+        <v>428630.6604375</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201">
-        <v>425793.61406250007</v>
+        <v>425793.6140625</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>427482.99075000006</v>
+        <v>427482.99075</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203">
-        <v>418772.34393750003</v>
+        <v>418772.3439375</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204">
-        <v>419389.92712500005</v>
+        <v>419389.927125</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205">
-        <v>418485.6645000001</v>
+        <v>418485.66449999996</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206">
-        <v>418830.17550000007</v>
+        <v>418830.1755</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207">
-        <v>414992.08650000003</v>
+        <v>414992.0865</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208">
-        <v>415334.9795625</v>
+        <v>415334.97956249997</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209">
-        <v>424662.86156250007</v>
+        <v>424662.8615625</v>
       </c>
     </row>
     <row r="210" spans="1:1">
@@ -1508,177 +1508,177 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>424517.03193750005</v>
+        <v>424517.0319375</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212">
-        <v>423440.42643750005</v>
+        <v>423440.4264375</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213">
-        <v>424047.42000000004</v>
+        <v>424047.42</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214">
-        <v>424834.53656250006</v>
+        <v>424834.5365625</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215">
-        <v>423695.22787500004</v>
+        <v>423695.227875</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216">
-        <v>425062.12668750004</v>
+        <v>425062.1266875</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217">
-        <v>424187.63568750006</v>
+        <v>424187.6356875</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218">
-        <v>422726.53518750006</v>
+        <v>422726.5351875</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219">
-        <v>423178.58868750004</v>
+        <v>423178.5886875</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220">
-        <v>428308.09593750007</v>
+        <v>428308.0959375</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221">
-        <v>429148.25850000005</v>
+        <v>429148.2585</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222">
-        <v>421945.88587500004</v>
+        <v>421945.885875</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223">
-        <v>422135.47406250006</v>
+        <v>422135.4740625</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224">
-        <v>423863.53650000005</v>
+        <v>423863.5365</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225">
-        <v>424335.50306250004</v>
+        <v>424335.5030625</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226">
-        <v>418714.08168750006</v>
+        <v>418714.0816875</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227">
-        <v>419172.18393750006</v>
+        <v>419172.1839375</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228">
-        <v>420335.09437500004</v>
+        <v>420335.094375</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229">
-        <v>420623.2113750001</v>
+        <v>420623.211375</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230">
-        <v>417385.06818750006</v>
+        <v>417385.0681875</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231">
-        <v>418130.19375000003</v>
+        <v>418130.19375</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232">
-        <v>419717.10506250005</v>
+        <v>419717.1050625</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233">
-        <v>419477.6030625001</v>
+        <v>419477.6030625</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234">
-        <v>421108.38918750006</v>
+        <v>421108.3891875</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235">
-        <v>424054.05956250004</v>
+        <v>424054.0595625</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236">
-        <v>425086.489875</v>
+        <v>425086.48987499997</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237">
-        <v>421972.28043750004</v>
+        <v>421972.2804375</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238">
-        <v>413362.408125</v>
+        <v>413362.40812499996</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239">
-        <v>416194.80881250004</v>
+        <v>416194.8088125</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240">
-        <v>412648.23937500006</v>
+        <v>412648.239375</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241">
-        <v>413146.12068750005</v>
+        <v>413146.1206875</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>407699.1624375</v>
+        <v>407699.16243749997</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243">
-        <v>408246.40687500004</v>
+        <v>408246.406875</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244">
-        <v>420378.2505</v>
+        <v>420378.25049999997</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245">
-        <v>422328.98325000005</v>
+        <v>422328.98325</v>
       </c>
     </row>
     <row r="246" spans="1:1">
@@ -1688,257 +1688,257 @@
     </row>
     <row r="247" spans="1:1">
       <c r="A247">
-        <v>404873.60550000006</v>
+        <v>404873.6055</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248">
-        <v>428617.89206250006</v>
+        <v>428617.8920625</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249">
-        <v>429544.29468750005</v>
+        <v>429544.2946875</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250">
-        <v>430594.56731250003</v>
+        <v>430594.5673125</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251">
-        <v>427196.34393750003</v>
+        <v>427196.3439375</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252">
-        <v>428408.326875</v>
+        <v>428408.32687499997</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253">
-        <v>429039.76443750004</v>
+        <v>429039.7644375</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254">
-        <v>430087.41975000006</v>
+        <v>430087.41975</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255">
-        <v>428673.94950000005</v>
+        <v>428673.9495</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256">
-        <v>429431.8076250001</v>
+        <v>429431.807625</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257">
-        <v>430517.45568750007</v>
+        <v>430517.4556875</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258">
-        <v>429583.696125</v>
+        <v>429583.69612499996</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259">
-        <v>430203.23081250006</v>
+        <v>430203.2308125</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260">
-        <v>431508.4539375</v>
+        <v>431508.45393749996</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261">
-        <v>429019.29993750004</v>
+        <v>429019.2999375</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262">
-        <v>427579.5495</v>
+        <v>427579.54949999996</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263">
-        <v>429499.60425000003</v>
+        <v>429499.60425</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264">
-        <v>430292.59518750006</v>
+        <v>430292.5951875</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265">
-        <v>431503.4514375001</v>
+        <v>431503.4514375</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266">
-        <v>427245.47437500005</v>
+        <v>427245.474375</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267">
-        <v>428051.28506250004</v>
+        <v>428051.2850625</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268">
-        <v>428700.1066875</v>
+        <v>428700.10668749997</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269">
-        <v>430592.3368125</v>
+        <v>430592.33681249997</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270">
-        <v>426373.55887500005</v>
+        <v>426373.558875</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>427556.62500000006</v>
+        <v>427556.625</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272">
-        <v>429554.1780000001</v>
+        <v>429554.17799999996</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273">
-        <v>428496.9405</v>
+        <v>428496.94049999997</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274">
-        <v>429461.922</v>
+        <v>429461.92199999996</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275">
-        <v>431499.28912500007</v>
+        <v>431499.289125</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276">
-        <v>431453.2760625</v>
+        <v>431453.27606249996</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277">
-        <v>432346.00068750005</v>
+        <v>432346.0006875</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278">
-        <v>429102.01631250005</v>
+        <v>429102.0163125</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279">
-        <v>425446.503</v>
+        <v>425446.50299999997</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280">
-        <v>429527.92443750007</v>
+        <v>429527.9244375</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281">
-        <v>425073.23850000004</v>
+        <v>425073.2385</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282">
-        <v>428908.31568750006</v>
+        <v>428908.3156875</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283">
-        <v>429720.15525000007</v>
+        <v>429720.15525</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284">
-        <v>432613.34512500005</v>
+        <v>432613.345125</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285">
-        <v>421754.06006250007</v>
+        <v>421754.0600625</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286">
-        <v>441977.08368750004</v>
+        <v>441977.0836875</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287">
-        <v>444480.56587500003</v>
+        <v>444480.565875</v>
       </c>
     </row>
     <row r="288" spans="1:1">
       <c r="A288">
-        <v>447301.62825000007</v>
+        <v>447301.62825</v>
       </c>
     </row>
     <row r="289" spans="1:1">
       <c r="A289">
-        <v>440806.99781250005</v>
+        <v>440806.9978125</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290">
-        <v>440608.82568750007</v>
+        <v>440608.8256875</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291">
-        <v>441449.69268750004</v>
+        <v>441449.6926875</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292">
-        <v>444467.42006250005</v>
+        <v>444467.4200625</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293">
-        <v>443945.32068750006</v>
+        <v>443945.3206875</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294">
-        <v>446973.19106250006</v>
+        <v>446973.1910625</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>441146.08518750005</v>
+        <v>441146.0851875</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296">
-        <v>436777.2050625</v>
+        <v>436777.20506249997</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297">
-        <v>443907.10781250003</v>
+        <v>443907.1078125</v>
       </c>
     </row>
     <row r="298" spans="1:1">
@@ -1948,242 +1948,242 @@
     </row>
     <row r="299" spans="1:1">
       <c r="A299">
-        <v>442972.50600000005</v>
+        <v>442972.506</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300">
-        <v>442570.96368750004</v>
+        <v>442570.9636875</v>
       </c>
     </row>
     <row r="301" spans="1:1">
       <c r="A301">
-        <v>447498.4685625</v>
+        <v>447498.46856249997</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302">
-        <v>447674.01806250005</v>
+        <v>447674.0180625</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303">
-        <v>446880.68212500005</v>
+        <v>446880.682125</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304">
-        <v>450953.24400000006</v>
+        <v>450953.244</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305">
-        <v>448247.2753125</v>
+        <v>448247.27531249996</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306">
-        <v>452732.96625000006</v>
+        <v>452732.96625</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307">
-        <v>447601.88250000007</v>
+        <v>447601.8825</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308">
-        <v>450284.38518750004</v>
+        <v>450284.3851875</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>449729.94993750006</v>
+        <v>449729.9499375</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310">
-        <v>453616.70062500006</v>
+        <v>453616.700625</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311">
-        <v>454217.53481250006</v>
+        <v>454217.5348125</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312">
-        <v>453343.52587500005</v>
+        <v>453343.525875</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313">
-        <v>459264.54187500005</v>
+        <v>459264.541875</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314">
-        <v>457136.59500000003</v>
+        <v>457136.595</v>
       </c>
     </row>
     <row r="315" spans="1:1">
       <c r="A315">
-        <v>455944.15200000006</v>
+        <v>455944.152</v>
       </c>
     </row>
     <row r="316" spans="1:1">
       <c r="A316">
-        <v>463958.5764375001</v>
+        <v>463958.57643749996</v>
       </c>
     </row>
     <row r="317" spans="1:1">
       <c r="A317">
-        <v>462464.06625000003</v>
+        <v>462464.06625</v>
       </c>
     </row>
     <row r="318" spans="1:1">
       <c r="A318">
-        <v>470755.31925000006</v>
+        <v>470755.31925</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319">
-        <v>454234.69818750006</v>
+        <v>454234.6981875</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320">
-        <v>469941.26812500006</v>
+        <v>469941.268125</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321">
-        <v>480384.43462500005</v>
+        <v>480384.434625</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322">
-        <v>443859.25837500003</v>
+        <v>443859.258375</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323">
-        <v>444132.50212500006</v>
+        <v>444132.502125</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324">
-        <v>449464.7461875</v>
+        <v>449464.74618749996</v>
       </c>
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>449763.48000000004</v>
+        <v>449763.48</v>
       </c>
     </row>
     <row r="326" spans="1:1">
       <c r="A326">
-        <v>453252.3744375</v>
+        <v>453252.37443749997</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327">
-        <v>443830.12631250004</v>
+        <v>443830.1263125</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328">
-        <v>442764.122625</v>
+        <v>442764.12262499996</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329">
-        <v>445171.78687500005</v>
+        <v>445171.786875</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330">
-        <v>447701.5875</v>
+        <v>447701.58749999997</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331">
-        <v>440329.30012500007</v>
+        <v>440329.300125</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332">
-        <v>440080.1105625</v>
+        <v>440080.11056249996</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333">
-        <v>442569.89137500006</v>
+        <v>442569.891375</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334">
-        <v>434757.87056250003</v>
+        <v>434757.8705625</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335">
-        <v>443510.47612500004</v>
+        <v>443510.476125</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336">
-        <v>443315.56743750005</v>
+        <v>443315.5674375</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>446247.9926250001</v>
+        <v>446247.992625</v>
       </c>
     </row>
     <row r="338" spans="1:1">
       <c r="A338">
-        <v>443894.18887500005</v>
+        <v>443894.188875</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339">
-        <v>443962.6723125001</v>
+        <v>443962.6723125</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340">
-        <v>446327.1954375</v>
+        <v>446327.19543749996</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341">
-        <v>449173.66218750004</v>
+        <v>449173.6621875</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342">
-        <v>452876.61150000006</v>
+        <v>452876.6115</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343">
-        <v>448735.06781250006</v>
+        <v>448735.0678125</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344">
-        <v>452065.55625</v>
+        <v>452065.55624999997</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345">
-        <v>450431.715</v>
+        <v>450431.71499999997</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346">
-        <v>450609.60937500006</v>
+        <v>450609.609375</v>
       </c>
     </row>
     <row r="347" spans="1:1">
@@ -2193,57 +2193,57 @@
     </row>
     <row r="348" spans="1:1">
       <c r="A348">
-        <v>456911.33831250004</v>
+        <v>456911.3383125</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349">
-        <v>450352.78218750004</v>
+        <v>450352.7821875</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350">
-        <v>450645.26250000007</v>
+        <v>450645.2625</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351">
-        <v>453586.13962500007</v>
+        <v>453586.139625</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>452994.5640000001</v>
+        <v>452994.564</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353">
-        <v>456461.62556250003</v>
+        <v>456461.6255625</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354">
-        <v>456210.471375</v>
+        <v>456210.47137499996</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355">
-        <v>456298.96950000006</v>
+        <v>456298.9695</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356">
-        <v>466853.97506250005</v>
+        <v>466853.9750625</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357">
-        <v>475821.97893750004</v>
+        <v>475821.9789375</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358">
-        <v>475161.31706250005</v>
+        <v>475161.3170625</v>
       </c>
     </row>
     <row r="359" spans="1:1">
@@ -2253,212 +2253,212 @@
     </row>
     <row r="360" spans="1:1">
       <c r="A360">
-        <v>450559.2575625</v>
+        <v>450559.25756249996</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361">
-        <v>452854.9245</v>
+        <v>452854.92449999996</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362">
-        <v>458934.44700000004</v>
+        <v>458934.447</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363">
-        <v>462676.82212500006</v>
+        <v>462676.822125</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364">
-        <v>448063.28081250004</v>
+        <v>448063.2808125</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365">
-        <v>450343.32000000007</v>
+        <v>450343.32</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366">
-        <v>448610.4493125</v>
+        <v>448610.44931249996</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367">
-        <v>451984.381875</v>
+        <v>451984.38187499996</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368">
-        <v>453211.09968750004</v>
+        <v>453211.0996875</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369">
-        <v>455752.29675000004</v>
+        <v>455752.29675</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370">
-        <v>450138.57881250005</v>
+        <v>450138.5788125</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371">
-        <v>448443.06675000006</v>
+        <v>448443.06675</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372">
-        <v>452402.146125</v>
+        <v>452402.14612499997</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373">
-        <v>441460.9273125</v>
+        <v>441460.92731249996</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374">
-        <v>453908.88918750006</v>
+        <v>453908.8891875</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375">
-        <v>452080.9539375</v>
+        <v>452080.95393749996</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376">
-        <v>456712.96275000006</v>
+        <v>456712.96275</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377">
-        <v>451408.77375000005</v>
+        <v>451408.77375</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378">
-        <v>453656.92087500007</v>
+        <v>453656.920875</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379">
-        <v>458519.87325000006</v>
+        <v>458519.87325</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380">
-        <v>459287.69250000006</v>
+        <v>459287.6925</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381">
-        <v>462310.83131250006</v>
+        <v>462310.8313125</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382">
-        <v>466239.310125</v>
+        <v>466239.31012499996</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383">
-        <v>464862.04612500005</v>
+        <v>464862.046125</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384">
-        <v>462706.28962500003</v>
+        <v>462706.289625</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385">
-        <v>468704.67300000007</v>
+        <v>468704.67299999995</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386">
-        <v>457063.21406250005</v>
+        <v>457063.2140625</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387">
-        <v>460112.7916875</v>
+        <v>460112.79168749996</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388">
-        <v>460702.73831250006</v>
+        <v>460702.7383125</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389">
-        <v>459361.09556250006</v>
+        <v>459361.0955625</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390">
-        <v>464211.21693750005</v>
+        <v>464211.2169375</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391">
-        <v>471429.5214375</v>
+        <v>471429.52143749996</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392">
-        <v>476559.4245</v>
+        <v>476559.42449999996</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393">
-        <v>475877.78400000004</v>
+        <v>475877.784</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394">
-        <v>481231.79962500004</v>
+        <v>481231.799625</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395">
-        <v>486835.0434375</v>
+        <v>486835.04343749996</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396">
-        <v>483338.10000000003</v>
+        <v>483338.1</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397">
-        <v>493916.84625000006</v>
+        <v>493916.84625</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398">
-        <v>462477.29887500004</v>
+        <v>462477.298875</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399">
-        <v>461127.76106250007</v>
+        <v>461127.7610625</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400">
-        <v>466293.82800000004</v>
+        <v>466293.828</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401">
-        <v>510208.3190625001</v>
+        <v>510208.3190625</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2">
-        <v>70706.11875000004</v>
+        <v>70706.11874999998</v>
       </c>
       <c r="B2">
         <v>0.0</v>
@@ -2559,13 +2559,13 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>66128.15625000001</v>
+        <v>66128.15625000006</v>
       </c>
       <c r="E2">
         <v>0.0</v>
       </c>
       <c r="F2">
-        <v>83302.26000000001</v>
+        <v>83302.25999999997</v>
       </c>
       <c r="G2">
         <v>0.0</v>
@@ -2586,10 +2586,10 @@
         <v>74999.745</v>
       </c>
       <c r="M2">
-        <v>70338.61500000002</v>
+        <v>70338.61499999999</v>
       </c>
       <c r="N2">
-        <v>68251.87124999997</v>
+        <v>68251.87125</v>
       </c>
       <c r="O2">
         <v>0.0</v>
@@ -2642,82 +2642,82 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>28283.57755125004</v>
+        <v>28283.577551249982</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>28618.124624999993</v>
+        <v>28618.124625000008</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>26859.236175</v>
+        <v>26859.236175000005</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>28533.883357500003</v>
+        <v>28533.883357500046</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>28261.116877499997</v>
+        <v>28261.116877500015</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>30169.51457999999</v>
+        <v>30169.51457999998</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>34311.14199</v>
+        <v>34311.141990000004</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>42121.11224249999</v>
+        <v>42121.1122425</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>42042.79106999999</v>
+        <v>42042.79107000001</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>27453.528832500007</v>
+        <v>27453.528832500004</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>22270.863791250005</v>
+        <v>22270.863791249998</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>16164.648359999977</v>
+        <v>16164.64836</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>21030.45609750002</v>
+        <v>21030.45609749999</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>21150.25049249996</v>
+        <v>21150.25049250001</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>16429.029738750003</v>
+        <v>16429.02973875</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17">
-        <v>17958.74531625</v>
+        <v>17958.745316250002</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -2727,27 +2727,27 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19">
-        <v>28011.762134999997</v>
+        <v>28011.76213499999</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20">
-        <v>31844.258100000006</v>
+        <v>31844.258099999992</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21">
-        <v>35429.33859749999</v>
+        <v>35429.338597500006</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22">
-        <v>34560.705611249985</v>
+        <v>34560.70561125</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23">
-        <v>40269.10572000001</v>
+        <v>40269.10572</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -2757,7 +2757,7 @@
     </row>
     <row r="25" spans="1:1">
       <c r="A25">
-        <v>32297.649153749997</v>
+        <v>32297.649153749993</v>
       </c>
     </row>
   </sheetData>
